--- a/data/trans_orig/P05A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4AE8E62-C076-4F18-80DE-C9E7F44F55F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA993AD4-2F06-48D9-A431-C5D6C6ABC420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BDEE1665-9883-49F3-9C51-50F6526D67D8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A91D794-7B9A-4253-9B84-7D7A9F9A299B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="556">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,16 +77,16 @@
     <t>91,56%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>93,16%</t>
+    <t>93,15%</t>
   </si>
   <si>
     <t>99,24%</t>
@@ -95,10 +95,10 @@
     <t>94,26%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,10 +107,10 @@
     <t>8,44%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
   </si>
   <si>
     <t>2,21%</t>
@@ -119,1588 +119,1594 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>5,93%</t>
+    <t>6,56%</t>
   </si>
   <si>
     <t>5,36%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>9,04%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
   </si>
   <si>
     <t>2,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2015 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964B2128-048B-40DF-8229-3E399C370D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D266682-8B7A-4125-8EBF-87F3162E63EC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2562,10 +2568,10 @@
         <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2574,13 +2580,13 @@
         <v>15809</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2642,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2648,13 +2654,13 @@
         <v>830063</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>787</v>
@@ -2663,13 +2669,13 @@
         <v>832277</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>1561</v>
@@ -2678,13 +2684,13 @@
         <v>1662339</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2705,13 @@
         <v>107133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -2714,13 +2720,13 @@
         <v>107993</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
@@ -2729,13 +2735,13 @@
         <v>215126</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2756,13 @@
         <v>18358</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2765,13 +2771,13 @@
         <v>24772</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -2780,13 +2786,13 @@
         <v>43130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,7 +2848,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2854,13 +2860,13 @@
         <v>521255</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>558</v>
@@ -2869,13 +2875,13 @@
         <v>547425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>1052</v>
@@ -2884,13 +2890,13 @@
         <v>1068679</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2911,13 @@
         <v>133715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -2920,13 +2926,13 @@
         <v>110312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>238</v>
@@ -2935,13 +2941,13 @@
         <v>244027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2962,13 @@
         <v>18842</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -2971,13 +2977,13 @@
         <v>22965</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -2986,13 +2992,13 @@
         <v>41807</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,7 +3054,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3060,13 +3066,13 @@
         <v>710674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>727</v>
@@ -3075,13 +3081,13 @@
         <v>753937</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>1478</v>
@@ -3090,13 +3096,13 @@
         <v>1464611</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3117,13 @@
         <v>171291</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>220</v>
@@ -3126,13 +3132,13 @@
         <v>232779</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M21" s="7">
         <v>401</v>
@@ -3141,13 +3147,13 @@
         <v>404070</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3168,13 @@
         <v>44691</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3177,13 +3183,13 @@
         <v>41681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -3192,13 +3198,13 @@
         <v>86372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3272,13 @@
         <v>2684860</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>2703</v>
@@ -3281,13 +3287,13 @@
         <v>2757525</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>5335</v>
@@ -3296,13 +3302,13 @@
         <v>5442386</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3323,13 @@
         <v>475385</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>483</v>
@@ -3332,13 +3338,13 @@
         <v>505726</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>952</v>
@@ -3347,13 +3353,13 @@
         <v>981111</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3374,13 @@
         <v>89789</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -3383,13 +3389,13 @@
         <v>98197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>182</v>
@@ -3398,13 +3404,13 @@
         <v>187986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,7 +3466,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3481,7 +3487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819BEC79-1078-4092-A03E-D5E0465BA447}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086CD45-3313-4E72-8B2D-33E9671D3DAB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3498,7 +3504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3605,13 +3611,13 @@
         <v>111205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
         <v>98</v>
@@ -3620,13 +3626,13 @@
         <v>110930</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>215</v>
@@ -3635,13 +3641,13 @@
         <v>222135</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3662,13 @@
         <v>2290</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3671,13 +3677,13 @@
         <v>975</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3686,13 +3692,13 @@
         <v>3265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,7 +3719,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3728,7 +3734,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3743,7 +3749,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3817,13 @@
         <v>571050</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>522</v>
@@ -3826,13 +3832,13 @@
         <v>550180</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>1058</v>
@@ -3841,13 +3847,13 @@
         <v>1121230</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3868,13 @@
         <v>14767</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -3877,13 +3883,13 @@
         <v>24827</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -3892,13 +3898,13 @@
         <v>39594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3925,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3928,13 +3934,13 @@
         <v>5540</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3943,13 +3949,13 @@
         <v>5540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +4011,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4017,13 +4023,13 @@
         <v>893354</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>826</v>
@@ -4032,13 +4038,13 @@
         <v>905654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>1649</v>
@@ -4047,13 +4053,13 @@
         <v>1799008</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4074,13 @@
         <v>93244</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -4083,13 +4089,13 @@
         <v>94942</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -4098,13 +4104,13 @@
         <v>188186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4125,13 @@
         <v>23911</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4134,13 +4140,13 @@
         <v>21958</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4149,13 +4155,13 @@
         <v>45869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,7 +4217,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4223,13 +4229,13 @@
         <v>652836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>620</v>
@@ -4238,13 +4244,13 @@
         <v>685432</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>1216</v>
@@ -4253,13 +4259,13 @@
         <v>1338268</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4280,13 @@
         <v>89152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -4289,13 +4295,13 @@
         <v>83366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>255</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>157</v>
@@ -4304,13 +4310,13 @@
         <v>172518</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4331,13 @@
         <v>14741</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -4340,13 +4346,13 @@
         <v>3034</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -4355,13 +4361,13 @@
         <v>17775</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,7 +4423,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4429,13 +4435,13 @@
         <v>752543</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>268</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>780</v>
@@ -4444,13 +4450,13 @@
         <v>817039</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>1504</v>
@@ -4459,13 +4465,13 @@
         <v>1569582</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4486,13 @@
         <v>141061</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -4495,13 +4501,13 @@
         <v>163802</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M21" s="7">
         <v>291</v>
@@ -4510,13 +4516,13 @@
         <v>304863</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4537,13 @@
         <v>41002</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -4546,13 +4552,13 @@
         <v>43171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>120</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -4561,13 +4567,13 @@
         <v>84173</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4641,13 @@
         <v>2980987</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H24" s="7">
         <v>2846</v>
@@ -4650,13 +4656,13 @@
         <v>3069236</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>5642</v>
@@ -4665,13 +4671,13 @@
         <v>6050223</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4692,13 @@
         <v>340515</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>340</v>
@@ -4701,13 +4707,13 @@
         <v>367910</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M25" s="7">
         <v>658</v>
@@ -4716,13 +4722,13 @@
         <v>708425</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4743,13 @@
         <v>79654</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -4752,13 +4758,13 @@
         <v>73704</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -4767,7 +4773,7 @@
         <v>153357</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>117</v>
+        <v>314</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>315</v>
@@ -4829,7 +4835,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4850,7 +4856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDFBE65-AB9A-4F64-9050-11E1F68EFC01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71106CC-84C3-476C-BADF-B76F1F8BA0E4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4974,7 +4980,7 @@
         <v>116546</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>318</v>
@@ -4989,7 +4995,7 @@
         <v>112371</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>319</v>
@@ -5004,7 +5010,7 @@
         <v>228917</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>320</v>
@@ -5031,7 +5037,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5061,7 +5067,7 @@
         <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>322</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,7 +5088,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5112,7 +5118,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>322</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5186,13 @@
         <v>515956</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>513</v>
@@ -5195,13 +5201,13 @@
         <v>519919</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -5210,13 +5216,13 @@
         <v>1035875</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5237,13 @@
         <v>35092</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -5246,10 +5252,10 @@
         <v>27840</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>336</v>
@@ -5264,10 +5270,10 @@
         <v>337</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>338</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5288,13 @@
         <v>2024</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -5297,13 +5303,13 @@
         <v>4884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5312,13 +5318,13 @@
         <v>6908</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,7 +5380,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5386,13 +5392,13 @@
         <v>903058</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H12" s="7">
         <v>849</v>
@@ -5401,13 +5407,13 @@
         <v>904688</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="M12" s="7">
         <v>1690</v>
@@ -5416,13 +5422,13 @@
         <v>1807747</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5443,13 @@
         <v>74410</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>355</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>52</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -5452,13 +5458,13 @@
         <v>87810</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -5467,13 +5473,13 @@
         <v>162221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5494,13 @@
         <v>42773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -5503,13 +5509,13 @@
         <v>42485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -5518,13 +5524,13 @@
         <v>85258</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,7 +5586,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5592,13 +5598,13 @@
         <v>572850</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H16" s="7">
         <v>550</v>
@@ -5607,13 +5613,13 @@
         <v>587395</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M16" s="7">
         <v>1078</v>
@@ -5622,13 +5628,13 @@
         <v>1160245</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5649,13 @@
         <v>138126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -5658,13 +5664,13 @@
         <v>142078</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M17" s="7">
         <v>259</v>
@@ -5673,13 +5679,13 @@
         <v>280204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5694,13 +5700,13 @@
         <v>43326</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -5709,13 +5715,13 @@
         <v>51738</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>254</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -5724,13 +5730,13 @@
         <v>95064</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,7 +5792,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5798,13 +5804,13 @@
         <v>744178</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>755</v>
@@ -5813,13 +5819,13 @@
         <v>819613</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>1496</v>
@@ -5828,13 +5834,13 @@
         <v>1563791</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5855,13 @@
         <v>157073</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H21" s="7">
         <v>160</v>
@@ -5864,13 +5870,13 @@
         <v>175603</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M21" s="7">
         <v>316</v>
@@ -5879,13 +5885,13 @@
         <v>332676</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,13 +5906,13 @@
         <v>21395</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -5918,7 +5924,7 @@
         <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>414</v>
@@ -5930,10 +5936,10 @@
         <v>58785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>86</v>
+        <v>359</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>415</v>
@@ -6007,10 +6013,10 @@
         <v>416</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H24" s="7">
         <v>2781</v>
@@ -6019,13 +6025,13 @@
         <v>2943986</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M24" s="7">
         <v>5503</v>
@@ -6034,13 +6040,13 @@
         <v>5796576</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6061,13 @@
         <v>404701</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H25" s="7">
         <v>403</v>
@@ -6070,13 +6076,13 @@
         <v>433332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>786</v>
@@ -6085,13 +6091,13 @@
         <v>838033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>225</v>
+        <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6106,13 +6112,13 @@
         <v>109518</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7">
         <v>127</v>
@@ -6124,10 +6130,10 @@
         <v>35</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>170</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>226</v>
@@ -6136,13 +6142,13 @@
         <v>246015</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>234</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,7 +6204,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -6219,7 +6225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E3D37D-28C3-4BE6-B616-AC8ADE91AA5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7C585-B697-4247-A8E3-AC112794B7E3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6236,7 +6242,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6343,10 +6349,10 @@
         <v>101982</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -6358,10 +6364,10 @@
         <v>130733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -6373,10 +6379,10 @@
         <v>232715</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>38</v>
@@ -6400,7 +6406,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6415,7 +6421,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6430,7 +6436,7 @@
         <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,7 +6457,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6466,7 +6472,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6481,7 +6487,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,13 +6555,13 @@
         <v>531019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H8" s="7">
         <v>956</v>
@@ -6564,13 +6570,13 @@
         <v>594219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M8" s="7">
         <v>1547</v>
@@ -6579,13 +6585,13 @@
         <v>1125239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6606,13 @@
         <v>13198</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -6615,13 +6621,13 @@
         <v>21223</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>456</v>
+        <v>214</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>457</v>
+        <v>289</v>
       </c>
       <c r="M9" s="7">
         <v>49</v>
@@ -6630,13 +6636,13 @@
         <v>34422</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6657,13 @@
         <v>4555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>465</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6666,13 +6672,13 @@
         <v>3802</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>466</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>468</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -6681,13 +6687,13 @@
         <v>8357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>464</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,7 +6749,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6755,13 +6761,13 @@
         <v>969264</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>327</v>
+        <v>471</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H12" s="7">
         <v>1401</v>
@@ -6770,13 +6776,13 @@
         <v>976985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>468</v>
+        <v>247</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M12" s="7">
         <v>2299</v>
@@ -6785,13 +6791,13 @@
         <v>1946249</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,13 +6812,13 @@
         <v>41199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -6821,13 +6827,13 @@
         <v>54345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -6836,13 +6842,13 @@
         <v>95544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,13 +6863,13 @@
         <v>25854</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -6872,13 +6878,13 @@
         <v>23761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>485</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -6887,13 +6893,13 @@
         <v>49615</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,7 +6955,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6961,13 +6967,13 @@
         <v>651034</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H16" s="7">
         <v>943</v>
@@ -6976,13 +6982,13 @@
         <v>798307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M16" s="7">
         <v>1541</v>
@@ -6991,13 +6997,13 @@
         <v>1449341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,13 +7018,13 @@
         <v>68795</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H17" s="7">
         <v>81</v>
@@ -7027,13 +7033,13 @@
         <v>61393</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M17" s="7">
         <v>149</v>
@@ -7042,13 +7048,13 @@
         <v>130188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7069,13 @@
         <v>3568</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -7078,13 +7084,13 @@
         <v>9251</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>509</v>
+        <v>37</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -7093,13 +7099,13 @@
         <v>12819</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>63</v>
+        <v>512</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,7 +7161,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7167,13 +7173,13 @@
         <v>816801</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H20" s="7">
         <v>1271</v>
@@ -7182,13 +7188,13 @@
         <v>945636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>515</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M20" s="7">
         <v>2128</v>
@@ -7197,13 +7203,13 @@
         <v>1762437</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7224,13 @@
         <v>109517</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H21" s="7">
         <v>210</v>
@@ -7233,13 +7239,13 @@
         <v>148574</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M21" s="7">
         <v>325</v>
@@ -7248,13 +7254,13 @@
         <v>258092</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,13 +7275,13 @@
         <v>31636</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>368</v>
+        <v>172</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>529</v>
+        <v>341</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H22" s="7">
         <v>59</v>
@@ -7284,13 +7290,13 @@
         <v>43330</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -7299,13 +7305,13 @@
         <v>74966</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7379,13 @@
         <v>3070101</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H24" s="7">
         <v>4814</v>
@@ -7388,13 +7394,13 @@
         <v>3445879</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M24" s="7">
         <v>7876</v>
@@ -7403,13 +7409,13 @@
         <v>6515980</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7430,13 @@
         <v>232710</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H25" s="7">
         <v>401</v>
@@ -7439,13 +7445,13 @@
         <v>285535</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M25" s="7">
         <v>641</v>
@@ -7454,13 +7460,13 @@
         <v>518245</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>549</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7475,13 +7481,13 @@
         <v>65613</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>549</v>
+        <v>411</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -7490,13 +7496,13 @@
         <v>80144</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>321</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M26" s="7">
         <v>170</v>
@@ -7505,13 +7511,13 @@
         <v>145757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,7 +7573,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA993AD4-2F06-48D9-A431-C5D6C6ABC420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{650C920E-8D77-404B-8784-8155F61F8100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A91D794-7B9A-4253-9B84-7D7A9F9A299B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{309BE374-B16E-4157-B34E-5C830C1A10F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="558">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,35%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>91,56%</t>
   </si>
   <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>97,02%</t>
   </si>
   <si>
-    <t>93,15%</t>
+    <t>92,76%</t>
   </si>
   <si>
     <t>99,24%</t>
@@ -95,7 +95,7 @@
     <t>94,26%</t>
   </si>
   <si>
-    <t>90,54%</t>
+    <t>90,59%</t>
   </si>
   <si>
     <t>96,81%</t>
@@ -107,1606 +107,1612 @@
     <t>8,44%</t>
   </si>
   <si>
-    <t>4,44%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>83,13%</t>
   </si>
   <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,18%)</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,36%)</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
   </si>
   <si>
     <t>91,14%</t>
   </si>
   <si>
-    <t>92,13%</t>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>90,75%</t>
   </si>
   <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>8,49%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
     <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D266682-8B7A-4125-8EBF-87F3162E63EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5286C2-325E-4E02-B3A7-3E899C4B434B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2568,10 +2574,10 @@
         <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2580,13 +2586,13 @@
         <v>15809</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,7 +2648,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2654,13 +2660,13 @@
         <v>830063</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>787</v>
@@ -2669,13 +2675,13 @@
         <v>832277</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>1561</v>
@@ -2684,13 +2690,13 @@
         <v>1662339</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,10 +2711,10 @@
         <v>107133</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>78</v>
@@ -2995,7 +3001,7 @@
         <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>120</v>
@@ -3186,10 +3192,10 @@
         <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -3198,13 +3204,13 @@
         <v>86372</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,7 +3335,7 @@
         <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>483</v>
@@ -3338,7 +3344,7 @@
         <v>505726</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>160</v>
@@ -3377,10 +3383,10 @@
         <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>94</v>
@@ -3389,13 +3395,13 @@
         <v>98197</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>182</v>
@@ -3404,7 +3410,7 @@
         <v>187986</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>171</v>
@@ -3487,7 +3493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8086CD45-3313-4E72-8B2D-33E9671D3DAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA7E5FA-D24C-4A74-9ADF-03A5C783481D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3698,7 +3704,7 @@
         <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,7 +3725,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3817,13 +3823,13 @@
         <v>571050</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>522</v>
@@ -3832,13 +3838,13 @@
         <v>550180</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>1058</v>
@@ -3847,13 +3853,13 @@
         <v>1121230</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3874,13 @@
         <v>14767</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H9" s="7">
         <v>20</v>
@@ -3883,13 +3889,13 @@
         <v>24827</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M9" s="7">
         <v>34</v>
@@ -3898,13 +3904,13 @@
         <v>39594</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3931,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3934,13 +3940,13 @@
         <v>5540</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3949,13 +3955,13 @@
         <v>5540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +4017,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4023,13 +4029,13 @@
         <v>893354</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>826</v>
@@ -4038,13 +4044,13 @@
         <v>905654</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>1649</v>
@@ -4053,13 +4059,13 @@
         <v>1799008</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4080,13 @@
         <v>93244</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -4089,13 +4095,13 @@
         <v>94942</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -4104,13 +4110,13 @@
         <v>188186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4131,13 @@
         <v>23911</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -4140,13 +4146,13 @@
         <v>21958</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>39</v>
@@ -4155,13 +4161,13 @@
         <v>45869</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4235,13 @@
         <v>652836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>620</v>
@@ -4244,13 +4250,13 @@
         <v>685432</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>1216</v>
@@ -4259,13 +4265,13 @@
         <v>1338268</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4286,13 @@
         <v>89152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -4295,13 +4301,13 @@
         <v>83366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>157</v>
@@ -4310,13 +4316,13 @@
         <v>172518</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4337,13 @@
         <v>14741</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -4346,13 +4352,13 @@
         <v>3034</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -4361,13 +4367,13 @@
         <v>17775</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,13 +4441,13 @@
         <v>752543</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>780</v>
@@ -4450,13 +4456,13 @@
         <v>817039</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>1504</v>
@@ -4465,13 +4471,13 @@
         <v>1569582</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4486,13 +4492,13 @@
         <v>141061</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H21" s="7">
         <v>155</v>
@@ -4501,10 +4507,10 @@
         <v>163802</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>278</v>
@@ -4552,10 +4558,10 @@
         <v>43171</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>286</v>
@@ -4647,7 +4653,7 @@
         <v>291</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="H24" s="7">
         <v>2846</v>
@@ -4656,13 +4662,13 @@
         <v>3069236</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>5642</v>
@@ -4671,13 +4677,13 @@
         <v>6050223</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4698,13 @@
         <v>340515</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>340</v>
@@ -4707,13 +4713,13 @@
         <v>367910</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>658</v>
@@ -4722,13 +4728,13 @@
         <v>708425</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4749,13 @@
         <v>79654</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H26" s="7">
         <v>67</v>
@@ -4758,13 +4764,13 @@
         <v>73704</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M26" s="7">
         <v>139</v>
@@ -4773,13 +4779,13 @@
         <v>153357</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,7 +4862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71106CC-84C3-476C-BADF-B76F1F8BA0E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5576A1C-5E9C-431E-B9D6-74AEFC44EF59}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4873,7 +4879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4983,7 +4989,7 @@
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -4998,7 +5004,7 @@
         <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -5013,7 +5019,7 @@
         <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>38</v>
@@ -5037,7 +5043,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5052,7 +5058,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5067,7 +5073,7 @@
         <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,7 +5094,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>89</v>
+        <v>318</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5103,7 +5109,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5118,7 +5124,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>65</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5192,13 @@
         <v>515956</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H8" s="7">
         <v>513</v>
@@ -5201,13 +5207,13 @@
         <v>519919</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -5216,13 +5222,13 @@
         <v>1035875</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5243,13 @@
         <v>35092</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -5252,13 +5258,13 @@
         <v>27840</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M9" s="7">
         <v>60</v>
@@ -5267,13 +5273,13 @@
         <v>62932</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,10 +5312,10 @@
         <v>340</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -5380,7 +5386,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5389,16 +5395,16 @@
         <v>841</v>
       </c>
       <c r="D12" s="7">
-        <v>903058</v>
+        <v>903059</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H12" s="7">
         <v>849</v>
@@ -5407,13 +5413,13 @@
         <v>904688</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
         <v>1690</v>
@@ -5422,13 +5428,13 @@
         <v>1807747</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5446,13 @@
         <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>74410</v>
+        <v>74411</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>335</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>353</v>
@@ -5461,10 +5467,10 @@
         <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>151</v>
@@ -5473,13 +5479,13 @@
         <v>162221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5500,13 @@
         <v>42773</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -5509,13 +5515,13 @@
         <v>42485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -5524,13 +5530,13 @@
         <v>85258</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,7 +5548,7 @@
         <v>949</v>
       </c>
       <c r="D15" s="7">
-        <v>1020242</v>
+        <v>1020243</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -5598,13 +5604,13 @@
         <v>572850</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>550</v>
@@ -5613,13 +5619,13 @@
         <v>587395</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>1078</v>
@@ -5628,13 +5634,13 @@
         <v>1160245</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5655,13 @@
         <v>138126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -5664,13 +5670,13 @@
         <v>142078</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>259</v>
@@ -5679,13 +5685,13 @@
         <v>280204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5706,13 @@
         <v>43326</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -5715,13 +5721,13 @@
         <v>51738</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>388</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -5730,13 +5736,13 @@
         <v>95064</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>392</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,10 +5843,10 @@
         <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5861,13 @@
         <v>157073</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H21" s="7">
         <v>160</v>
@@ -5870,13 +5876,13 @@
         <v>175603</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M21" s="7">
         <v>316</v>
@@ -5885,13 +5891,13 @@
         <v>332676</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5912,13 @@
         <v>21395</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -5921,13 +5927,13 @@
         <v>37390</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -5936,10 +5942,10 @@
         <v>58785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>415</v>
@@ -6079,10 +6085,10 @@
         <v>428</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>786</v>
@@ -6091,13 +6097,13 @@
         <v>838033</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6118,13 @@
         <v>109518</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>127</v>
@@ -6130,10 +6136,10 @@
         <v>35</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>436</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M26" s="7">
         <v>226</v>
@@ -6142,13 +6148,13 @@
         <v>246015</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,7 +6231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7C585-B697-4247-A8E3-AC112794B7E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D70CE3-57A5-479D-9178-77C8DBF5B4E9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6242,7 +6248,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6352,7 +6358,7 @@
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>38</v>
@@ -6367,7 +6373,7 @@
         <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>38</v>
@@ -6382,7 +6388,7 @@
         <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>38</v>
@@ -6406,7 +6412,7 @@
         <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6421,7 +6427,7 @@
         <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6436,7 +6442,7 @@
         <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6457,7 +6463,7 @@
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6472,7 +6478,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6487,7 +6493,7 @@
         <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6561,13 @@
         <v>531019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H8" s="7">
         <v>956</v>
@@ -6570,13 +6576,13 @@
         <v>594219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>451</v>
+        <v>13</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="M8" s="7">
         <v>1547</v>
@@ -6585,13 +6591,13 @@
         <v>1125239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6612,13 @@
         <v>13198</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>453</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -6621,13 +6627,13 @@
         <v>21223</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>459</v>
+        <v>167</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>214</v>
+        <v>455</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>289</v>
+        <v>456</v>
       </c>
       <c r="M9" s="7">
         <v>49</v>
@@ -6636,13 +6642,13 @@
         <v>34422</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>460</v>
+        <v>87</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>461</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6663,13 @@
         <v>4555</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -6672,13 +6678,13 @@
         <v>3802</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -6687,13 +6693,13 @@
         <v>8357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>465</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>343</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,7 +6755,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6761,13 +6767,13 @@
         <v>969264</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H12" s="7">
         <v>1401</v>
@@ -6776,13 +6782,13 @@
         <v>976985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>247</v>
+        <v>471</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M12" s="7">
         <v>2299</v>
@@ -6791,13 +6797,13 @@
         <v>1946249</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6818,13 @@
         <v>41199</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H13" s="7">
         <v>76</v>
@@ -6827,13 +6833,13 @@
         <v>54345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>480</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -6842,7 +6848,7 @@
         <v>95544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>482</v>
@@ -6869,7 +6875,7 @@
         <v>485</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="H14" s="7">
         <v>32</v>
@@ -6881,10 +6887,10 @@
         <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>486</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -6893,13 +6899,13 @@
         <v>49615</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6973,13 @@
         <v>651034</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="H16" s="7">
         <v>943</v>
@@ -6982,13 +6988,13 @@
         <v>798307</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M16" s="7">
         <v>1541</v>
@@ -6997,13 +7003,13 @@
         <v>1449341</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7018,10 +7024,10 @@
         <v>68795</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>500</v>
@@ -7039,7 +7045,7 @@
         <v>502</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>149</v>
@@ -7048,13 +7054,13 @@
         <v>130188</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7075,13 @@
         <v>3568</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>508</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>509</v>
+        <v>63</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -7084,13 +7090,13 @@
         <v>9251</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -7099,13 +7105,13 @@
         <v>12819</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>513</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,13 +7179,13 @@
         <v>816801</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H20" s="7">
         <v>1271</v>
@@ -7188,13 +7194,13 @@
         <v>945636</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>516</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M20" s="7">
         <v>2128</v>
@@ -7203,13 +7209,13 @@
         <v>1762437</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7230,13 @@
         <v>109517</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>524</v>
       </c>
       <c r="H21" s="7">
         <v>210</v>
@@ -7239,13 +7245,13 @@
         <v>148574</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="M21" s="7">
         <v>325</v>
@@ -7254,13 +7260,13 @@
         <v>258092</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,10 +7281,10 @@
         <v>31636</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>341</v>
+        <v>530</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>531</v>
@@ -7296,7 +7302,7 @@
         <v>533</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>534</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -7305,13 +7311,13 @@
         <v>74966</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>170</v>
+        <v>535</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>534</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7385,13 @@
         <v>3070101</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H24" s="7">
         <v>4814</v>
@@ -7394,28 +7400,28 @@
         <v>3445879</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M24" s="7">
         <v>7876</v>
       </c>
       <c r="N24" s="7">
-        <v>6515980</v>
+        <v>6515981</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7436,13 @@
         <v>232710</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H25" s="7">
         <v>401</v>
@@ -7445,13 +7451,13 @@
         <v>285535</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>387</v>
+        <v>549</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M25" s="7">
         <v>641</v>
@@ -7460,13 +7466,13 @@
         <v>518245</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7487,13 @@
         <v>65613</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>411</v>
+        <v>554</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H26" s="7">
         <v>111</v>
@@ -7496,13 +7502,13 @@
         <v>80144</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M26" s="7">
         <v>170</v>
@@ -7511,13 +7517,13 @@
         <v>145757</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>555</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7559,7 +7565,7 @@
         <v>8687</v>
       </c>
       <c r="N27" s="7">
-        <v>7179983</v>
+        <v>7179984</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
